--- a/My project/Luban/Config/Datas/名词解释表.xlsx
+++ b/My project/Luban/Config/Datas/名词解释表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lofnh\Documents\GitHub\Draconia\My project\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BBBB6B-657A-4B7B-B02B-42F910D897A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1290BF-CCA7-44D4-8CE2-CF1A9C04225D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="9915" xr2:uid="{B8166186-183E-48E2-87C0-8C2FA5208538}"/>
+    <workbookView xWindow="10905" yWindow="1500" windowWidth="28740" windowHeight="9915" xr2:uid="{B8166186-183E-48E2-87C0-8C2FA5208538}"/>
   </bookViews>
   <sheets>
     <sheet name="CardNoun" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="29">
   <si>
     <t>##var</t>
   </si>
@@ -104,48 +104,44 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>虚幻</t>
+    <t>推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使目标向后移动，如果后面没有单位则无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻盈</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>回合结束时消失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>所有基础卡费用-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>溃敌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础卡可以生效两次</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>重心不稳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加攻击力20%，最高可叠加3层。且3层后获得所有伤害百分之50真实伤害buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>硬直增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只可使用一次的牌，此牌不计入牌库，洗牌时消失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使目标向后移动，如果后面没有单位则无效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到硬直增加</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>双重</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生效两次，移动不生效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -206,7 +202,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -222,6 +218,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -538,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2223F90-B250-4918-8298-F1BA2F1E4509}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -592,60 +592,48 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>21</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="E4" s="2"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    <row r="5" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
